--- a/biology/Zoologie/Chacal_du_Sénégal/Chacal_du_Sénégal.xlsx
+++ b/biology/Zoologie/Chacal_du_Sénégal/Chacal_du_Sénégal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chacal_du_S%C3%A9n%C3%A9gal</t>
+          <t>Chacal_du_Sénégal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Canis aureus anthus
-Le chacal du Sénégal (Canis lupaster anthus) est une sous-espèce du loup doré d’Afrique qui vit en Afrique de l'Ouest, plus précisément au Sénégal[1]. Aussi appelé chacal svelte, il est plus grand et plus haut que son cousin le Loup d’Égypte[2].
+Le chacal du Sénégal (Canis lupaster anthus) est une sous-espèce du loup doré d’Afrique qui vit en Afrique de l'Ouest, plus précisément au Sénégal. Aussi appelé chacal svelte, il est plus grand et plus haut que son cousin le Loup d’Égypte.
 Synonymes latins : Canis anthus, Canis senegalensis (C. E. H. Smith, 1839)
 </t>
         </is>
